--- a/Incentive_COM/result/Nguyễn Văn Lãm.xlsx
+++ b/Incentive_COM/result/Nguyễn Văn Lãm.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="84">
   <si>
     <t>KAM/KAE (Full name)</t>
   </si>
@@ -80,21 +80,30 @@
     <t>Nguyễn Thị Bông</t>
   </si>
   <si>
-    <t>Lương Thanh Thảo</t>
+    <t>Nguyễn Quang Huy</t>
   </si>
   <si>
     <t>BONGBACHTUYET</t>
   </si>
   <si>
-    <t>SAMSUNG</t>
-  </si>
-  <si>
     <t>P&amp;G</t>
   </si>
   <si>
+    <t>LVN ACD</t>
+  </si>
+  <si>
     <t>MOLFIX</t>
   </si>
   <si>
+    <t>MOI</t>
+  </si>
+  <si>
+    <t>MOIRA</t>
+  </si>
+  <si>
+    <t>CETAPHIL</t>
+  </si>
+  <si>
     <t>BONG BACH TUYET - SHOPEE</t>
   </si>
   <si>
@@ -107,15 +116,39 @@
     <t>BONG BACH TUYET - TIKTOK</t>
   </si>
   <si>
-    <t>SAMSUNG - TIKTOK</t>
-  </si>
-  <si>
     <t>P&amp;G VIETNAM - TIKTOK</t>
   </si>
   <si>
+    <t>CERAVE - TIKTOK</t>
+  </si>
+  <si>
     <t>MOLFIX - TIKTOK</t>
   </si>
   <si>
+    <t>M.O.I - TIKTOK</t>
+  </si>
+  <si>
+    <t>MOIRA - LAZADA</t>
+  </si>
+  <si>
+    <t>MOIRA - SHOPEE</t>
+  </si>
+  <si>
+    <t>MOIRA - TIKI</t>
+  </si>
+  <si>
+    <t>MOIRA - TIKTOK</t>
+  </si>
+  <si>
+    <t>CETAPHIL - TIKTOK</t>
+  </si>
+  <si>
+    <t>CETAPHILBABY - LANDING PAGE</t>
+  </si>
+  <si>
+    <t>CETAPHILBHR - LANDING PAGE</t>
+  </si>
+  <si>
     <t>B2C</t>
   </si>
   <si>
@@ -125,6 +158,12 @@
     <t>Nguyễn Văn Lãm</t>
   </si>
   <si>
+    <t>Nguyễn Châu Hoàng Yến</t>
+  </si>
+  <si>
+    <t>Lê Chiến Thắng</t>
+  </si>
+  <si>
     <t>Trần Minh Duy</t>
   </si>
   <si>
@@ -134,43 +173,85 @@
     <t>0.00%</t>
   </si>
   <si>
-    <t>45.12%</t>
-  </si>
-  <si>
-    <t>72.13%</t>
+    <t>74.85%</t>
+  </si>
+  <si>
+    <t>90.23%</t>
+  </si>
+  <si>
+    <t>64.71%</t>
+  </si>
+  <si>
+    <t>79.71%</t>
+  </si>
+  <si>
+    <t>97.72%</t>
+  </si>
+  <si>
+    <t>18.94%</t>
+  </si>
+  <si>
+    <t>100.00%</t>
+  </si>
+  <si>
+    <t>40.57%</t>
+  </si>
+  <si>
+    <t>197.50%</t>
+  </si>
+  <si>
+    <t>72.15%</t>
+  </si>
+  <si>
+    <t>57.73%</t>
   </si>
   <si>
     <t>34.43%</t>
   </si>
   <si>
-    <t>51.62%</t>
-  </si>
-  <si>
-    <t>15.83%</t>
-  </si>
-  <si>
-    <t>8.22%</t>
-  </si>
-  <si>
-    <t>4.74%</t>
-  </si>
-  <si>
-    <t>0.13%</t>
-  </si>
-  <si>
-    <t>6.05%</t>
-  </si>
-  <si>
-    <t>36.67%</t>
-  </si>
-  <si>
-    <t>153.99%</t>
-  </si>
-  <si>
-    <t>151.07%</t>
-  </si>
-  <si>
-    <t>92.93%</t>
+    <t>89.60%</t>
+  </si>
+  <si>
+    <t>25.38%</t>
+  </si>
+  <si>
+    <t>1.00%</t>
+  </si>
+  <si>
+    <t>15.41%</t>
+  </si>
+  <si>
+    <t>48.48%</t>
+  </si>
+  <si>
+    <t>42.52%</t>
+  </si>
+  <si>
+    <t>43.89%</t>
+  </si>
+  <si>
+    <t>439.73%</t>
+  </si>
+  <si>
+    <t>3.93%</t>
+  </si>
+  <si>
+    <t>1017.06%</t>
+  </si>
+  <si>
+    <t>48.26%</t>
+  </si>
+  <si>
+    <t>1549.99%</t>
+  </si>
+  <si>
+    <t>143.01%</t>
+  </si>
+  <si>
+    <t>8980.78%</t>
+  </si>
+  <si>
+    <t>1097.38%</t>
   </si>
   <si>
     <t>Name</t>
@@ -179,13 +260,13 @@
     <t>Incentive</t>
   </si>
   <si>
-    <t>21.34%</t>
-  </si>
-  <si>
-    <t>28.35%</t>
-  </si>
-  <si>
-    <t>150.34%</t>
+    <t>61.30%</t>
+  </si>
+  <si>
+    <t>67.14%</t>
+  </si>
+  <si>
+    <t>62.17%</t>
   </si>
 </sst>
 </file>
@@ -564,7 +645,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -637,16 +718,16 @@
         <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -655,16 +736,16 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="J2" s="2">
-        <v>27705</v>
+        <v>19096</v>
       </c>
       <c r="K2" s="2">
-        <v>61401.99999999991</v>
+        <v>25511.99999999996</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="M2" s="2">
         <v>0</v>
@@ -673,19 +754,19 @@
         <v>0</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="P2" s="2">
-        <v>4349.685</v>
+        <v>2959.88</v>
       </c>
       <c r="Q2" s="2">
-        <v>9640.113999999985</v>
+        <v>3954.359999999994</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -696,16 +777,16 @@
         <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
@@ -714,16 +795,16 @@
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="J3" s="2">
-        <v>17593</v>
+        <v>14618</v>
       </c>
       <c r="K3" s="2">
-        <v>24389.99999999998</v>
+        <v>16199.99999999997</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="M3" s="2">
         <v>0</v>
@@ -732,19 +813,19 @@
         <v>0</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="P3" s="2">
-        <v>2762.101</v>
+        <v>2265.79</v>
       </c>
       <c r="Q3" s="2">
-        <v>3829.229999999997</v>
+        <v>2510.999999999996</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -755,16 +836,16 @@
         <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
@@ -773,16 +854,16 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="J4" s="2">
-        <v>2033</v>
+        <v>2006</v>
       </c>
       <c r="K4" s="2">
-        <v>5903.999999999987</v>
+        <v>3099.999999999996</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="M4" s="2">
         <v>0</v>
@@ -791,19 +872,19 @@
         <v>0</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="P4" s="2">
-        <v>319.181</v>
+        <v>310.93</v>
       </c>
       <c r="Q4" s="2">
-        <v>926.927999999998</v>
+        <v>480.4999999999994</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -817,7 +898,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
@@ -832,16 +913,16 @@
         <v>0</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="J5" s="3">
-        <v>47331</v>
+        <v>35720</v>
       </c>
       <c r="K5" s="3">
-        <v>91695.99999999987</v>
+        <v>44811.99999999993</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="M5" s="3">
         <v>0</v>
@@ -850,19 +931,19 @@
         <v>0</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="P5" s="3">
-        <v>7430.967</v>
+        <v>5536.6</v>
       </c>
       <c r="Q5" s="3">
-        <v>14396.27199999998</v>
+        <v>6945.859999999989</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -873,16 +954,16 @@
         <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
@@ -891,16 +972,16 @@
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="J6" s="2">
-        <v>1994</v>
+        <v>4886</v>
       </c>
       <c r="K6" s="2">
-        <v>12600</v>
+        <v>5000</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="M6" s="2">
         <v>0</v>
@@ -909,19 +990,19 @@
         <v>0</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="P6" s="2">
-        <v>313.058</v>
+        <v>473.942</v>
       </c>
       <c r="Q6" s="2">
-        <v>1978.2</v>
+        <v>485</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -932,16 +1013,16 @@
         <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
@@ -950,16 +1031,16 @@
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="J7" s="2">
-        <v>0</v>
+        <v>3787</v>
       </c>
       <c r="K7" s="2">
-        <v>75600</v>
+        <v>19999.99999999995</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="M7" s="2">
         <v>0</v>
@@ -968,19 +1049,19 @@
         <v>0</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="P7" s="2">
-        <v>0</v>
+        <v>329.469</v>
       </c>
       <c r="Q7" s="2">
-        <v>5229.634812362906</v>
+        <v>1739.999999999995</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -991,16 +1072,16 @@
         <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="G8" s="2">
         <v>0</v>
@@ -1009,16 +1090,16 @@
         <v>0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="J8" s="2">
-        <v>5180</v>
+        <v>1470</v>
       </c>
       <c r="K8" s="2">
-        <v>63000</v>
+        <v>0</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="M8" s="2">
         <v>0</v>
@@ -1027,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="P8" s="2">
-        <v>466.2</v>
+        <v>142.59</v>
       </c>
       <c r="Q8" s="2">
-        <v>5670</v>
+        <v>0</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1053,7 +1134,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="E9" s="3">
         <v>1</v>
@@ -1068,16 +1149,16 @@
         <v>0</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="J9" s="3">
-        <v>7174</v>
+        <v>10143</v>
       </c>
       <c r="K9" s="3">
-        <v>151200</v>
+        <v>24999.99999999995</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="M9" s="3">
         <v>0</v>
@@ -1086,19 +1167,19 @@
         <v>0</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="P9" s="3">
-        <v>779.258</v>
+        <v>946.0010000000001</v>
       </c>
       <c r="Q9" s="3">
-        <v>12877.83481236291</v>
+        <v>2224.999999999995</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1109,114 +1190,586 @@
         <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>4999.999999999994</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>484.9999999999994</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" s="2">
+        <v>3950</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1999.999999999999</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P11" s="2">
+        <v>434.5</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>219.9999999999999</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2" t="s">
+      <c r="D12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J12" s="2">
+        <v>3607</v>
+      </c>
+      <c r="K12" s="2">
+        <v>4999.612903225804</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P12" s="2">
+        <v>108.21</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>149.9883870967741</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J10" s="2">
-        <v>16</v>
-      </c>
-      <c r="K10" s="2">
-        <v>12600</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M10" s="2">
-        <v>0</v>
-      </c>
-      <c r="N10" s="2">
-        <v>0</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="P10" s="2">
-        <v>2.152</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>1694.7</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="A11" s="3" t="s">
+      <c r="D13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1732</v>
+      </c>
+      <c r="K13" s="2">
+        <v>3000</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P13" s="2">
+        <v>51.96</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>90</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1033</v>
+      </c>
+      <c r="K14" s="2">
+        <v>3000</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P14" s="2">
+        <v>30.99</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>90</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J15" s="2">
+        <v>896</v>
+      </c>
+      <c r="K15" s="2">
+        <v>999.9999999999999</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P15" s="2">
+        <v>26.88</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>30</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1269</v>
+      </c>
+      <c r="K16" s="2">
+        <v>4999.99999999999</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P16" s="2">
+        <v>139.59</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>549.9999999999989</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J17" s="2">
+        <v>12</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1199.999999999999</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P17" s="2">
+        <v>1.32</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>131.9999999999999</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J18" s="2">
+        <v>131</v>
+      </c>
+      <c r="K18" s="2">
+        <v>850</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P18" s="2">
+        <v>14.41</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>93.5</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="3">
+        <v>4</v>
+      </c>
+      <c r="C19" s="3">
+        <v>9</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="3">
+        <v>3</v>
+      </c>
+      <c r="F19" s="3">
         <v>1</v>
       </c>
-      <c r="C11" s="3">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="3">
-        <v>16</v>
-      </c>
-      <c r="K11" s="3">
-        <v>12600</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="M11" s="3">
-        <v>0</v>
-      </c>
-      <c r="N11" s="3">
-        <v>0</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="P11" s="3">
-        <v>2.152</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>1694.7</v>
-      </c>
-      <c r="R11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="S11" s="3" t="s">
-        <v>51</v>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J19" s="3">
+        <v>12630</v>
+      </c>
+      <c r="K19" s="3">
+        <v>26049.61290322578</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="M19" s="3">
+        <v>0</v>
+      </c>
+      <c r="N19" s="3">
+        <v>0</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P19" s="3">
+        <v>807.8600000000001</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>1840.488387096772</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1234,7 +1787,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
@@ -1276,7 +1829,7 @@
         <v>18</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -1287,31 +1840,31 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2">
-        <v>47331</v>
+        <v>35720</v>
       </c>
       <c r="F2" s="2">
-        <v>91695.99999999987</v>
+        <v>44811.99999999993</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2">
-        <v>7430.967</v>
+        <v>5536.6</v>
       </c>
       <c r="L2" s="2">
-        <v>14396.27199999998</v>
+        <v>6945.859999999989</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1322,31 +1875,31 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2">
-        <v>7174</v>
+        <v>10143</v>
       </c>
       <c r="F3" s="2">
-        <v>151200</v>
+        <v>24999.99999999995</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2">
-        <v>779.258</v>
+        <v>946.0010000000001</v>
       </c>
       <c r="L3" s="2">
-        <v>12877.83481236291</v>
+        <v>2224.999999999995</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1357,66 +1910,66 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2">
-        <v>16</v>
+        <v>12630</v>
       </c>
       <c r="F4" s="2">
-        <v>12600</v>
+        <v>26049.61290322578</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2">
-        <v>2.152</v>
+        <v>807.8600000000001</v>
       </c>
       <c r="L4" s="2">
-        <v>1694.7</v>
+        <v>1840.488387096772</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="4" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4">
-        <v>54521</v>
+        <v>45863</v>
       </c>
       <c r="F5" s="4">
-        <v>255495.9999999999</v>
+        <v>74811.99999999988</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4">
-        <v>8212.377</v>
+        <v>6482.601000000001</v>
       </c>
       <c r="L5" s="4">
-        <v>28968.80681236289</v>
+        <v>9655.859999999982</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
